--- a/Assets/Resources/Data/QuestData1.xlsx
+++ b/Assets/Resources/Data/QuestData1.xlsx
@@ -340,122 +340,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>戦闘シミュレータへようこそ。君には実践を想定した訓練を受けてもらう。</t>
-    <rPh sb="0" eb="2">
-      <t>セントウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>キミ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジッセン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>クンレン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前回と同じ敵だ。3体の討伐が目標だ。検討を祈る。</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンカイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>トウバツ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ケントウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>イノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今回はドラゴンとの戦闘を訓練してもらう。正直言って、このドラゴンは弱いぞ。</t>
-    <rPh sb="0" eb="2">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セントウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>クンレン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ショウジキ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ヨワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ドラゴンは主に魔法を得意とする。気を付けてくれ。</t>
-    <rPh sb="5" eb="6">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トクイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今回の敵はスケルトンだ。このあたりでは生息は確認はされていないが、訓練の一環として戦闘をしてもらう。</t>
-    <rPh sb="0" eb="2">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セイソク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>クンレン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>イッカン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>セントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スケルトンは物理攻撃が特に強い。注意するんだな。</t>
     <rPh sb="6" eb="8">
       <t>ブツリ</t>
@@ -475,29 +359,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>今回はドラゴンとの戦闘だ。もう慣れたか？</t>
-    <rPh sb="0" eb="2">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セントウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今回はスケルトンとの戦闘だ。</t>
-    <rPh sb="0" eb="2">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>今回はサイクロプスとの戦闘に挑戦する。初めての戦いなら注意して挑め。</t>
     <rPh sb="0" eb="2">
       <t>コンカイ</t>
@@ -519,31 +380,6 @@
     </rPh>
     <rPh sb="31" eb="32">
       <t>イド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>恒例の2体討伐だ。怠けずに是非己の力としてほしい。</t>
-    <rPh sb="0" eb="2">
-      <t>コウレイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウバツ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ナマ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ゼヒ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オノレ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>チカラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -579,28 +415,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>今更こいつと戦闘訓練？と思っただろう。初心忘れるべからずだ。</t>
-    <rPh sb="0" eb="2">
-      <t>イマサラ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セントウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>クンレン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ショシン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ワス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ヒトが生み出した過去の産物と戦ってもらう。魔法文化の中で埋もれてしまった技術の塊である。</t>
     <rPh sb="3" eb="4">
       <t>ウ</t>
@@ -638,150 +452,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ドラゴンは青属性の攻撃に弱い。積極的に狙っていきたい。</t>
-    <rPh sb="5" eb="6">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヨワ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>セッキョクテキ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ネラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>闇の底から這いあがったこいつらは、黒属性の魔法を多用する。</t>
-    <rPh sb="0" eb="1">
-      <t>ヤミ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ソコ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>クロ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>タヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>魔法を得意とする敵である。黄属性の技を使用する。</t>
-    <rPh sb="0" eb="2">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トクイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ワザ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>様々な属性の魔法を器用に使用してくるが、白属性には弱い。</t>
-    <rPh sb="0" eb="2">
-      <t>サマザマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ヨワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイクロプスは攻撃力が高い。むやみに近づくのは危険だ。</t>
-    <rPh sb="7" eb="10">
-      <t>コウゲキリョク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レベルが上がるにつれ、敵もより強い技を使用してくる。なれたからと言って、気を抜かないよう。</t>
-    <rPh sb="4" eb="5">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ワザ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ヌ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スケルトンは厄介ではあるが、体力はそう多くない。隙を見つけ地道に攻撃を繰り返すことが勝利への近道だ。</t>
     <rPh sb="6" eb="8">
       <t>ヤッカイ</t>
@@ -1044,6 +714,510 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>タタカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘シミュレータへようこそ。君には実践を想定した訓練を受けてもらう。クリアした後、809というコードを入れれば回復魔法が入手できるぞ。</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キミ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッセン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>クンレン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前回と同じ敵だ。3体の討伐が目標だ。検討を祈る。116は初心者用の魔法を覚えられるコードだ。</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウバツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>イノ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ショシンシャヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回はドラゴンとの戦闘を訓練してもらう。正直言って、このドラゴンは弱いぞ。クリア後は、072を入れよう。アビリティ装備枠が一つ増えるぞ。</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>クンレン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショウジキ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヨワ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラゴンは主に魔法を得意とする。気を付けてくれ。敵が強いと感じたら、今までのクエストをやり直してパワーアップする手もあるぞ。</t>
+    <rPh sb="5" eb="6">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トクイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回の敵はスケルトンだ。このあたりでは生息は確認はされていないが、訓練の一環として戦闘をしてもらう。コード043を使うことをお勧めする。</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイソク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>クンレン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イッカン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回はドラゴンとの戦闘だ。もう慣れたか？コード120を入力してみてくれ。</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回はスケルトンとの戦闘だ。コード881を入力すれば、かなりのパワーアップが期待できる。</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恒例の2体討伐だ。怠けずに是非己の力としてほしい。コード516は覚えておいて損はないだろう。</t>
+    <rPh sb="0" eb="2">
+      <t>コウレイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウバツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゼヒ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オノレ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オボ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今更こいつと戦闘訓練？と思っただろう。初心忘れるべからずだ。コード045を使ってみるといい。</t>
+    <rPh sb="0" eb="2">
+      <t>イマサラ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>クンレン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショシン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラゴンは青属性の攻撃に弱い。積極的に狙っていきたい。コード097は必須なコードだ。覚えておいてくれ。</t>
+    <rPh sb="5" eb="6">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨワ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>セッキョクテキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ネラ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>闇の底から這いあがったこいつらは、黒属性の魔法を多用する。コード870は黄の魔法を解放するコードだ。低レベルの魔法だが必要なら手に入れておいてくれ。</t>
+    <rPh sb="0" eb="1">
+      <t>ヤミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソコ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>タヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カイホウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法を得意とする敵である。黄属性の技を使用する。コード062は強力な魔法だ。入手しておいて損はないだろう。</t>
+    <rPh sb="0" eb="2">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トクイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ワザ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>様々な属性の魔法を器用に使用してくるが、白属性には弱い。コード964は、魔素の収集に非常に特化している。ぜひ使ってくれ。</t>
+    <rPh sb="0" eb="2">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨワ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シュウシュウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>トッカ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイクロプスは攻撃力が高い。むやみに近づくのは危険だ。コード152はアビリティ装備枠を一つ増やしてくれる。絶対取っておくように。</t>
+    <rPh sb="7" eb="10">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キケン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ゼッタイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベルが上がるにつれ、敵もより強い技を使用してくる。なれたからと言って、気を抜かないよう。敵が強いと感じたら、どんどんやられてどんどんコードを開けていこう。</t>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ワザ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1398,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1448,7 +1622,7 @@
         <v>900</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -1459,7 +1633,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1471,7 +1645,7 @@
         <v>900</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -1494,7 +1668,7 @@
         <v>900</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
@@ -1517,7 +1691,7 @@
         <v>900</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -1540,7 +1714,7 @@
         <v>900</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
@@ -1563,7 +1737,7 @@
         <v>900</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
         <v>25</v>
@@ -1586,7 +1760,7 @@
         <v>900</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -1609,7 +1783,7 @@
         <v>900</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
         <v>26</v>
@@ -1632,7 +1806,7 @@
         <v>900</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
         <v>27</v>
@@ -1655,7 +1829,7 @@
         <v>900</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
         <v>28</v>
@@ -1678,7 +1852,7 @@
         <v>900</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
         <v>29</v>
@@ -1692,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1701,7 +1875,7 @@
         <v>900</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1724,7 +1898,7 @@
         <v>900</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
@@ -1747,7 +1921,7 @@
         <v>900</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s">
         <v>32</v>
@@ -1770,7 +1944,7 @@
         <v>900</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
@@ -1793,7 +1967,7 @@
         <v>900</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
@@ -1807,7 +1981,7 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1816,7 +1990,7 @@
         <v>900</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
         <v>34</v>
@@ -1839,7 +2013,7 @@
         <v>900</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -1862,7 +2036,7 @@
         <v>900</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s">
         <v>37</v>
@@ -1885,7 +2059,7 @@
         <v>900</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s">
         <v>36</v>
@@ -1908,7 +2082,7 @@
         <v>900</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -1931,7 +2105,7 @@
         <v>900</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G23" t="s">
         <v>39</v>
@@ -1945,7 +2119,7 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1954,7 +2128,7 @@
         <v>900</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G24" t="s">
         <v>40</v>
@@ -1977,7 +2151,7 @@
         <v>900</v>
       </c>
       <c r="F25" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
@@ -2000,7 +2174,7 @@
         <v>900</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G26" t="s">
         <v>42</v>
@@ -2014,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2023,7 +2197,7 @@
         <v>900</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G27" t="s">
         <v>43</v>
@@ -2046,7 +2220,7 @@
         <v>900</v>
       </c>
       <c r="F28" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G28" t="s">
         <v>44</v>
@@ -2069,7 +2243,7 @@
         <v>900</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -2092,7 +2266,7 @@
         <v>900</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -2115,7 +2289,7 @@
         <v>900</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
         <v>47</v>

--- a/Assets/Resources/Data/QuestData1.xlsx
+++ b/Assets/Resources/Data/QuestData1.xlsx
@@ -718,43 +718,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>戦闘シミュレータへようこそ。君には実践を想定した訓練を受けてもらう。クリアした後、809というコードを入れれば回復魔法が入手できるぞ。</t>
-    <rPh sb="0" eb="2">
-      <t>セントウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>キミ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジッセン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>クンレン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>カイフク</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ニュウシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>前回と同じ敵だ。3体の討伐が目標だ。検討を祈る。116は初心者用の魔法を覚えられるコードだ。</t>
     <rPh sb="0" eb="2">
       <t>ゼンカイ</t>
@@ -788,46 +751,6 @@
     </rPh>
     <rPh sb="36" eb="37">
       <t>オボ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今回はドラゴンとの戦闘を訓練してもらう。正直言って、このドラゴンは弱いぞ。クリア後は、072を入れよう。アビリティ装備枠が一つ増えるぞ。</t>
-    <rPh sb="0" eb="2">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セントウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>クンレン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ショウジキ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ヨワ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ソウビ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ワク</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>フ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -869,37 +792,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>今回の敵はスケルトンだ。このあたりでは生息は確認はされていないが、訓練の一環として戦闘をしてもらう。コード043を使うことをお勧めする。</t>
-    <rPh sb="0" eb="2">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セイソク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>クンレン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>イッカン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>セントウ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>今回はドラゴンとの戦闘だ。もう慣れたか？コード120を入力してみてくれ。</t>
     <rPh sb="0" eb="2">
       <t>コンカイ</t>
@@ -1016,70 +908,244 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>闇の底から這いあがったこいつらは、黒属性の魔法を多用する。コード870は黄の魔法を解放するコードだ。低レベルの魔法だが必要なら手に入れておいてくれ。</t>
+    <t>魔法を得意とする敵である。黄属性の技を使用する。コード062は強力な魔法だ。入手しておいて損はないだろう。</t>
+    <rPh sb="0" eb="2">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トクイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ワザ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルページのチュートリアルを見ておくように！！！クリア後、809というコードを入れれば回復魔法が入手できる。</t>
+    <rPh sb="16" eb="17">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラゴンとの戦闘を訓練してもらう。このドラゴンは弱いぞ。クリア後は、072を入れよう。アビリティ装備枠が一つ増える。</t>
+    <rPh sb="6" eb="8">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クンレン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨワ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回の敵はスケルトンだ。このあたりでは生息は確認はされていないが、訓練として戦闘をしてもらう。コード043を使うことを勧める。</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイソク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>クンレン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒属性の魔法を多用する。コード870は黄の魔法を解放するコードだ。低レベルの魔法だが必要なら手に入れておいてくれ。</t>
     <rPh sb="0" eb="1">
-      <t>ヤミ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ソコ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ハ</t>
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイホウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>様々な属性の魔法を使用してくるが、白属性には弱い。コード964は、魔素の収集に非常に特化している。ぜひ使ってくれ。</t>
+    <rPh sb="0" eb="2">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
     </rPh>
     <rPh sb="17" eb="18">
-      <t>クロ</t>
+      <t>シロ</t>
     </rPh>
     <rPh sb="18" eb="20">
       <t>ゾクセイ</t>
     </rPh>
-    <rPh sb="21" eb="23">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>タヨウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>カイホウ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>テイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>魔法を得意とする敵である。黄属性の技を使用する。コード062は強力な魔法だ。入手しておいて損はないだろう。</t>
-    <rPh sb="0" eb="2">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トクイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
+    <rPh sb="22" eb="23">
+      <t>ヨワ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シュウシュウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>トッカ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイクロプスは攻撃力が高い。むやみに近づくのは危険だ。コード152はアビリティ装備枠を一つ増やしてくれる。</t>
+    <rPh sb="7" eb="10">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キケン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベルが上がるにつれ、敵もより強い技を使用してくる。敵が強いと感じたら、どんどんやられてどんどんコードを開けていこう。</t>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="12">
       <t>テキ</t>
     </rPh>
-    <rPh sb="13" eb="14">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ゾクセイ</t>
+    <rPh sb="15" eb="16">
+      <t>ツヨ</t>
     </rPh>
     <rPh sb="17" eb="18">
       <t>ワザ</t>
@@ -1087,136 +1153,16 @@
     <rPh sb="19" eb="21">
       <t>シヨウ</t>
     </rPh>
-    <rPh sb="31" eb="33">
-      <t>キョウリョク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ニュウシュ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ソン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>様々な属性の魔法を器用に使用してくるが、白属性には弱い。コード964は、魔素の収集に非常に特化している。ぜひ使ってくれ。</t>
-    <rPh sb="0" eb="2">
-      <t>サマザマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ヨワ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ソ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>シュウシュウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヒジョウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>トッカ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイクロプスは攻撃力が高い。むやみに近づくのは危険だ。コード152はアビリティ装備枠を一つ増やしてくれる。絶対取っておくように。</t>
-    <rPh sb="7" eb="10">
-      <t>コウゲキリョク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キケン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ソウビ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ワク</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ゼッタイ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レベルが上がるにつれ、敵もより強い技を使用してくる。なれたからと言って、気を抜かないよう。敵が強いと感じたら、どんどんやられてどんどんコードを開けていこう。</t>
-    <rPh sb="4" eb="5">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="11" eb="12">
+    <rPh sb="26" eb="27">
       <t>テキ</t>
     </rPh>
-    <rPh sb="15" eb="16">
+    <rPh sb="28" eb="29">
       <t>ツヨ</t>
     </rPh>
-    <rPh sb="17" eb="18">
-      <t>ワザ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
+    <rPh sb="31" eb="32">
       <t>カン</t>
     </rPh>
-    <rPh sb="71" eb="72">
+    <rPh sb="52" eb="53">
       <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1573,12 +1519,12 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="49.125" customWidth="1"/>
+    <col min="6" max="6" width="104.375" customWidth="1"/>
     <col min="7" max="7" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1622,7 +1568,7 @@
         <v>900</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -1645,7 +1591,7 @@
         <v>900</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -1668,7 +1614,7 @@
         <v>900</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
@@ -1691,7 +1637,7 @@
         <v>900</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -1714,7 +1660,7 @@
         <v>900</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
@@ -1760,7 +1706,7 @@
         <v>900</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -1783,7 +1729,7 @@
         <v>900</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
         <v>26</v>
@@ -1829,7 +1775,7 @@
         <v>900</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
         <v>28</v>
@@ -1875,7 +1821,7 @@
         <v>900</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1921,7 +1867,7 @@
         <v>900</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
         <v>32</v>
@@ -1944,7 +1890,7 @@
         <v>900</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
@@ -1967,7 +1913,7 @@
         <v>900</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>

--- a/Assets/Resources/Data/QuestData1.xlsx
+++ b/Assets/Resources/Data/QuestData1.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ikumu/Documents/UnityProject/MatrixCode/Assets/Resources/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="19395" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="QuestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -340,25 +353,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スケルトンは物理攻撃が特に強い。注意するんだな。</t>
-    <rPh sb="6" eb="8">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>今回はサイクロプスとの戦闘に挑戦する。初めての戦いなら注意して挑め。</t>
     <rPh sb="0" eb="2">
       <t>コンカイ</t>
@@ -998,34 +992,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>今回の敵はスケルトンだ。このあたりでは生息は確認はされていないが、訓練として戦闘をしてもらう。コード043を使うことを勧める。</t>
-    <rPh sb="0" eb="2">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セイソク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>クンレン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>セントウ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>黒属性の魔法を多用する。コード870は黄の魔法を解放するコードだ。低レベルの魔法だが必要なら手に入れておいてくれ。</t>
     <rPh sb="0" eb="1">
       <t>クロ</t>
@@ -1164,6 +1130,56 @@
     </rPh>
     <rPh sb="52" eb="53">
       <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回の敵はスケルトンだ。このあたりでは生息は確認はされていないが、訓練として戦闘をしてもらう。コード043を使うことを勧める。983も良い。</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイソク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>クンレン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケルトンは物理攻撃が特に強い。注意するんだな。047は覚えていて損はない</t>
+    <rPh sb="6" eb="8">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チュウイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1176,14 +1192,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1230,7 +1246,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1272,12 +1288,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1307,12 +1323,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1519,16 +1535,16 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="104.375" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="104.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1551,7 +1567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1568,13 +1584,13 @@
         <v>900</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1591,13 +1607,13 @@
         <v>900</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1605,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1614,13 +1630,13 @@
         <v>900</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1628,7 +1644,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1637,13 +1653,13 @@
         <v>900</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1651,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1660,13 +1676,13 @@
         <v>900</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1674,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1683,13 +1699,13 @@
         <v>900</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1697,7 +1713,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1706,13 +1722,13 @@
         <v>900</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1720,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1729,13 +1745,13 @@
         <v>900</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1743,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1752,13 +1768,13 @@
         <v>900</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1766,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1775,13 +1791,13 @@
         <v>900</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1789,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1798,13 +1814,13 @@
         <v>900</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1812,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1821,13 +1837,13 @@
         <v>900</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1835,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1844,13 +1860,13 @@
         <v>900</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1858,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1867,13 +1883,13 @@
         <v>900</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1890,13 +1906,13 @@
         <v>900</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1913,13 +1929,13 @@
         <v>900</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1927,7 +1943,7 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1936,13 +1952,13 @@
         <v>900</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1950,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1959,13 +1975,13 @@
         <v>900</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1973,7 +1989,7 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1982,13 +1998,13 @@
         <v>900</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1996,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2005,13 +2021,13 @@
         <v>900</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -2019,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2028,13 +2044,13 @@
         <v>900</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -2042,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2051,13 +2067,13 @@
         <v>900</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -2065,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2074,13 +2090,13 @@
         <v>900</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2088,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2097,13 +2113,13 @@
         <v>900</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -2120,13 +2136,13 @@
         <v>900</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2134,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2143,13 +2159,13 @@
         <v>900</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -2166,13 +2182,13 @@
         <v>900</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -2180,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2189,13 +2205,13 @@
         <v>900</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -2203,7 +2219,7 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2212,13 +2228,13 @@
         <v>900</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -2235,7 +2251,7 @@
         <v>900</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G31" t="s">
         <v>47</v>

--- a/Assets/Resources/Data/QuestData1.xlsx
+++ b/Assets/Resources/Data/QuestData1.xlsx
@@ -961,37 +961,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ドラゴンとの戦闘を訓練してもらう。このドラゴンは弱いぞ。クリア後は、072を入れよう。アビリティ装備枠が一つ増える。</t>
-    <rPh sb="6" eb="8">
-      <t>セントウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>クンレン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨワ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ソウビ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ワク</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>黒属性の魔法を多用する。コード870は黄の魔法を解放するコードだ。低レベルの魔法だが必要なら手に入れておいてくれ。</t>
     <rPh sb="0" eb="1">
       <t>クロ</t>
@@ -1180,6 +1149,37 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラゴンとの戦闘を訓練してもらう。このドラゴンは弱いぞ。クリア後は、127を入れよう。アビリティ装備枠が一つ増える。</t>
+    <rPh sb="6" eb="8">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クンレン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨワ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>フ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1535,7 +1535,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1630,7 +1630,7 @@
         <v>900</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
@@ -1676,7 +1676,7 @@
         <v>900</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
@@ -1699,7 +1699,7 @@
         <v>900</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
         <v>25</v>
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>900</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
@@ -1920,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1952,7 +1952,7 @@
         <v>900</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
         <v>34</v>
@@ -1975,7 +1975,7 @@
         <v>900</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -1998,7 +1998,7 @@
         <v>900</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
         <v>37</v>
@@ -2104,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2127,7 +2127,7 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D29">
         <v>0</v>
